--- a/materials/NLP-A/jelenlet/jelenlet_2024.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F408281-F3ED-4287-8CEF-FF0B1CFD00FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58ED911-159D-4D36-88D7-28902F41E3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -931,7 +931,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="18">
         <f>VLOOKUP(A6,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1099,7 +1099,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="23">
         <f ca="1">NOW()</f>
-        <v>45358.40192222222</v>
+        <v>45365.380322106481</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1149,7 +1149,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A3:A13"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="O6">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="20">
         <v>0</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="D14">
         <f>SUM(Táblázat3[2023.03.07])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <f>SUM(Táblázat3[2024.03.14])</f>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="O14">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="20">
         <f>AVERAGE(Táblázat3[ZH 1])</f>

--- a/materials/NLP-A/jelenlet/jelenlet_2024.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58ED911-159D-4D36-88D7-28902F41E3C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3D4ADF-1343-4761-9ECA-19143025AD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Csütörtök_aláíró" sheetId="5" r:id="rId1"/>
@@ -835,7 +835,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
@@ -931,7 +931,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="18">
         <f>VLOOKUP(A6,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1099,7 +1099,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="23">
         <f ca="1">NOW()</f>
-        <v>45365.380322106481</v>
+        <v>45379.398853935185</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1145,11 +1145,11 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="O6">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="20">
         <v>0</v>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="E14">
         <f>SUM(Táblázat3[2024.03.14])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <f>SUM(Táblázat3[2024.03.21])</f>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="O14">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" s="20">
         <f>AVERAGE(Táblázat3[ZH 1])</f>

--- a/materials/NLP-A/jelenlet/jelenlet_2024.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3D4ADF-1343-4761-9ECA-19143025AD20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCCDDE2-F924-479B-88B4-CA81952E5FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Csütörtök_aláíró" sheetId="5" r:id="rId1"/>
@@ -61,131 +61,131 @@
     <t>H</t>
   </si>
   <si>
-    <t>A MESTERSÉGES INTELLIGENCIA ALAPJAI
+    <t>ZH 1</t>
+  </si>
+  <si>
+    <t>Összesen</t>
+  </si>
+  <si>
+    <t>Összesen [%]</t>
+  </si>
+  <si>
+    <t>NK</t>
+  </si>
+  <si>
+    <t>CHEKSUM</t>
+  </si>
+  <si>
+    <t>ZH 1+</t>
+  </si>
+  <si>
+    <t>2024.02.22</t>
+  </si>
+  <si>
+    <t>2024.02.29</t>
+  </si>
+  <si>
+    <t>2023.03.07</t>
+  </si>
+  <si>
+    <t>2024.03.14</t>
+  </si>
+  <si>
+    <t>2024.03.21</t>
+  </si>
+  <si>
+    <t>2024.03.28</t>
+  </si>
+  <si>
+    <t>2024.04.04</t>
+  </si>
+  <si>
+    <t>2024.04.11</t>
+  </si>
+  <si>
+    <t>2024.04.18</t>
+  </si>
+  <si>
+    <t>2024.04.25</t>
+  </si>
+  <si>
+    <t>2024.05.02</t>
+  </si>
+  <si>
+    <t>2024.05.09</t>
+  </si>
+  <si>
+    <t>2024.05.16</t>
+  </si>
+  <si>
+    <t>Ardai Zsolt</t>
+  </si>
+  <si>
+    <t>Z4USY8</t>
+  </si>
+  <si>
+    <t>Berzi András</t>
+  </si>
+  <si>
+    <t>C8ODLV</t>
+  </si>
+  <si>
+    <t>Bódi András</t>
+  </si>
+  <si>
+    <t>UMH0FV</t>
+  </si>
+  <si>
+    <t>Csóka Péter</t>
+  </si>
+  <si>
+    <t>IALVNR</t>
+  </si>
+  <si>
+    <t>Menyhárt Tamás</t>
+  </si>
+  <si>
+    <t>PU2082</t>
+  </si>
+  <si>
+    <t>Mócza-Muráncsik Erika Mária</t>
+  </si>
+  <si>
+    <t>LZX33J</t>
+  </si>
+  <si>
+    <t>Nagy Kristóf</t>
+  </si>
+  <si>
+    <t>APXVCK</t>
+  </si>
+  <si>
+    <t>Pócsi Tamás</t>
+  </si>
+  <si>
+    <t>TE4DSR</t>
+  </si>
+  <si>
+    <t>Póczos Patrik</t>
+  </si>
+  <si>
+    <t>EAIIHI</t>
+  </si>
+  <si>
+    <t>Róth Arnold</t>
+  </si>
+  <si>
+    <t>T3HZKW</t>
+  </si>
+  <si>
+    <t>Szabó Sándor</t>
+  </si>
+  <si>
+    <t>GIQ96H</t>
+  </si>
+  <si>
+    <t>Haladó természetes nyelvű feldolgozás
 JELENLÉTI</t>
-  </si>
-  <si>
-    <t>ZH 1</t>
-  </si>
-  <si>
-    <t>Összesen</t>
-  </si>
-  <si>
-    <t>Összesen [%]</t>
-  </si>
-  <si>
-    <t>NK</t>
-  </si>
-  <si>
-    <t>CHEKSUM</t>
-  </si>
-  <si>
-    <t>ZH 1+</t>
-  </si>
-  <si>
-    <t>2024.02.22</t>
-  </si>
-  <si>
-    <t>2024.02.29</t>
-  </si>
-  <si>
-    <t>2023.03.07</t>
-  </si>
-  <si>
-    <t>2024.03.14</t>
-  </si>
-  <si>
-    <t>2024.03.21</t>
-  </si>
-  <si>
-    <t>2024.03.28</t>
-  </si>
-  <si>
-    <t>2024.04.04</t>
-  </si>
-  <si>
-    <t>2024.04.11</t>
-  </si>
-  <si>
-    <t>2024.04.18</t>
-  </si>
-  <si>
-    <t>2024.04.25</t>
-  </si>
-  <si>
-    <t>2024.05.02</t>
-  </si>
-  <si>
-    <t>2024.05.09</t>
-  </si>
-  <si>
-    <t>2024.05.16</t>
-  </si>
-  <si>
-    <t>Ardai Zsolt</t>
-  </si>
-  <si>
-    <t>Z4USY8</t>
-  </si>
-  <si>
-    <t>Berzi András</t>
-  </si>
-  <si>
-    <t>C8ODLV</t>
-  </si>
-  <si>
-    <t>Bódi András</t>
-  </si>
-  <si>
-    <t>UMH0FV</t>
-  </si>
-  <si>
-    <t>Csóka Péter</t>
-  </si>
-  <si>
-    <t>IALVNR</t>
-  </si>
-  <si>
-    <t>Menyhárt Tamás</t>
-  </si>
-  <si>
-    <t>PU2082</t>
-  </si>
-  <si>
-    <t>Mócza-Muráncsik Erika Mária</t>
-  </si>
-  <si>
-    <t>LZX33J</t>
-  </si>
-  <si>
-    <t>Nagy Kristóf</t>
-  </si>
-  <si>
-    <t>APXVCK</t>
-  </si>
-  <si>
-    <t>Pócsi Tamás</t>
-  </si>
-  <si>
-    <t>TE4DSR</t>
-  </si>
-  <si>
-    <t>Póczos Patrik</t>
-  </si>
-  <si>
-    <t>EAIIHI</t>
-  </si>
-  <si>
-    <t>Róth Arnold</t>
-  </si>
-  <si>
-    <t>T3HZKW</t>
-  </si>
-  <si>
-    <t>Szabó Sándor</t>
-  </si>
-  <si>
-    <t>GIQ96H</t>
   </si>
 </sst>
 </file>
@@ -835,8 +835,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +852,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="22"/>
@@ -880,7 +880,7 @@
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="6"/>
@@ -894,7 +894,7 @@
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="6"/>
@@ -903,12 +903,12 @@
       <c r="F4" s="4"/>
       <c r="G4" s="18">
         <f>VLOOKUP(A4,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="6"/>
@@ -922,7 +922,7 @@
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="5"/>
@@ -936,7 +936,7 @@
     </row>
     <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
@@ -950,7 +950,7 @@
     </row>
     <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="5"/>
@@ -964,7 +964,7 @@
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="6"/>
@@ -978,7 +978,7 @@
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="6"/>
@@ -992,7 +992,7 @@
     </row>
     <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="6"/>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="6"/>
@@ -1020,7 +1020,7 @@
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="9"/>
@@ -1099,7 +1099,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="23">
         <f ca="1">NOW()</f>
-        <v>45379.398853935185</v>
+        <v>45386.37251666667</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1145,11 +1145,11 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,66 +1194,66 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="G2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
         <v>26</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="19" t="s">
+      <c r="R2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="S2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="19" t="s">
         <v>11</v>
-      </c>
-      <c r="S2" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="19" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>0</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U3" s="4"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1351,19 +1351,19 @@
       </c>
       <c r="O4">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" s="20">
         <v>0</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U4" s="4"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1412,13 +1412,13 @@
         <v>0</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U5" s="4"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1467,13 +1467,13 @@
         <v>0</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U7" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1577,13 +1577,13 @@
         <v>0</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U8" s="4"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1632,13 +1632,13 @@
         <v>0</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U9" s="4"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1687,13 +1687,13 @@
         <v>0</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U10" s="4"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="T11" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U11" s="4"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1797,13 +1797,13 @@
         <v>0</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U13" s="4"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <f>SUM(Táblázat3[2024.02.22])</f>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="G14">
         <f>SUM(Táblázat3[2024.03.28])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <f>SUM(Táblázat3[2024.04.04])</f>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="O14">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P14" s="20">
         <f>AVERAGE(Táblázat3[ZH 1])</f>

--- a/materials/NLP-A/jelenlet/jelenlet_2024.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCCDDE2-F924-479B-88B4-CA81952E5FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70911D30-38CD-4F98-982B-5E174B89F37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
@@ -889,7 +889,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="18">
         <f>VLOOKUP(A3,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -917,7 +917,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="18">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1099,7 +1099,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="23">
         <f ca="1">NOW()</f>
-        <v>45386.37251666667</v>
+        <v>45400.646361226849</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1149,7 +1149,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="O3">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="20">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5" s="21">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="O10">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="20">
         <v>0</v>
@@ -1886,11 +1886,11 @@
       </c>
       <c r="H14">
         <f>SUM(Táblázat3[2024.04.04])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <f>SUM(Táblázat3[2024.04.11])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14">
         <f>SUM(Táblázat3[2024.04.18])</f>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="O14">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P14" s="20">
         <f>AVERAGE(Táblázat3[ZH 1])</f>

--- a/materials/NLP-A/jelenlet/jelenlet_2024.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70911D30-38CD-4F98-982B-5E174B89F37E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D84A9A-FFDC-4924-A035-02A3D68AE3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Csütörtök_aláíró" sheetId="5" r:id="rId1"/>
@@ -835,7 +835,7 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -889,7 +889,7 @@
       <c r="F3" s="4"/>
       <c r="G3" s="18">
         <f>VLOOKUP(A3,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -917,7 +917,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="18">
         <f>VLOOKUP(A5,Táblázat3[],15)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -945,7 +945,7 @@
       <c r="F7" s="4"/>
       <c r="G7" s="18">
         <f>VLOOKUP(A7,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="42" x14ac:dyDescent="0.35">
@@ -1099,7 +1099,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="23">
         <f ca="1">NOW()</f>
-        <v>45400.646361226849</v>
+        <v>45414.392092592592</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1145,11 +1145,11 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,7 +1167,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="26">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="O3">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P3" s="20">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="O5">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" s="21">
         <v>0</v>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="O7">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="20">
         <v>0</v>
@@ -1894,11 +1894,11 @@
       </c>
       <c r="J14">
         <f>SUM(Táblázat3[2024.04.18])</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14">
         <f>SUM(Táblázat3[2024.04.25])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <f>SUM(Táblázat3[2024.05.02])</f>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="O14">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P14" s="20">
         <f>AVERAGE(Táblázat3[ZH 1])</f>

--- a/materials/NLP-A/jelenlet/jelenlet_2024.xlsx
+++ b/materials/NLP-A/jelenlet/jelenlet_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opell\Projects\me\materials\NLP-A\jelenlet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D84A9A-FFDC-4924-A035-02A3D68AE3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7C7978-3721-4FDF-9261-3DB42B84893B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5235" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{07C5D06A-6ABB-4BE7-9F60-12023554FC87}"/>
   </bookViews>
   <sheets>
     <sheet name="Csütörtök_aláíró" sheetId="5" r:id="rId1"/>
@@ -835,8 +835,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,7 +1029,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="18">
         <f>VLOOKUP(A13,Táblázat3[],15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -1099,7 +1099,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="23">
         <f ca="1">NOW()</f>
-        <v>45414.392092592592</v>
+        <v>45428.367450810183</v>
       </c>
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
@@ -1145,11 +1145,11 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,14 +1839,14 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
         <f>SUM(Táblázat3[[#This Row],[2024.02.22]:[2024.05.16]])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="20">
         <v>0</v>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="M14">
         <f>SUM(Táblázat3[2024.05.09])</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14">
         <f>SUM(Táblázat3[2024.05.16])</f>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="O14">
         <f>SUM(Táblázat3[HIÁNYZÁS])</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P14" s="20">
         <f>AVERAGE(Táblázat3[ZH 1])</f>
